--- a/Documents/Grace's User Story for Display Functiions.xlsx
+++ b/Documents/Grace's User Story for Display Functiions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yikes\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1255158D-78D2-4C31-BA9E-50DF5397E484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E826557-FAFE-46B7-82B0-A484715A2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2335D535-6DA0-4A2E-BA33-0AB51C41CDED}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>player16 joins the lobby and displays inside the bounds of the online player list</t>
   </si>
   <si>
-    <t>player16 remains on the list of online players</t>
-  </si>
-  <si>
     <t>player17 logs into the server and enters "player17" as their username and clicks the enter button</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>**Bold outputs show discrepancies between what was predicted and what happened**</t>
+  </si>
+  <si>
+    <t>player16 is removed from the list of online players</t>
   </si>
 </sst>
 </file>
@@ -329,13 +329,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F16A184-1607-4AB2-91B1-8A6E739B9D60}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,13 +857,20 @@
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -926,24 +934,13 @@
       <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="5" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Grace's User Story for Display Functiions.xlsx
+++ b/Documents/Grace's User Story for Display Functiions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yikes\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E826557-FAFE-46B7-82B0-A484715A2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C330E93-5038-4429-BF3B-A9E7BD424A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2335D535-6DA0-4A2E-BA33-0AB51C41CDED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>ACTION</t>
   </si>
@@ -253,6 +253,24 @@
   </si>
   <si>
     <t>player16 is removed from the list of online players</t>
+  </si>
+  <si>
+    <t>player1 joins a game</t>
+  </si>
+  <si>
+    <t>player1 sees the list of online players</t>
+  </si>
+  <si>
+    <t>player24 logs into the server and enters "player24</t>
+  </si>
+  <si>
+    <t>player1 joins a game and still sees the list of online players</t>
+  </si>
+  <si>
+    <t>player1 should see the newly added player</t>
+  </si>
+  <si>
+    <t>player1 cannot see player24 on the online player list</t>
   </si>
 </sst>
 </file>
@@ -651,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F16A184-1607-4AB2-91B1-8A6E739B9D60}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,8 +956,30 @@
         <v>73</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
       <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
         <v>74</v>
       </c>
     </row>
